--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/metrics/Trial_236__Reeval_Taguchi_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/metrics/Trial_236__Reeval_Taguchi_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5356,7 +5356,7 @@
                   <c:v>364.0626220703125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>358.3464965820312</c:v>
+                  <c:v>358.3465270996094</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>355.5992431640625</c:v>
@@ -5431,7 +5431,7 @@
                   <c:v>330.0684814453125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>360.052978515625</c:v>
+                  <c:v>360.0529479980469</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>355.6442260742188</c:v>
@@ -5467,13 +5467,13 @@
                   <c:v>340.1334838867188</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>357.7135925292969</c:v>
+                  <c:v>357.713623046875</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>360.8998107910156</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>371.3925170898438</c:v>
+                  <c:v>371.3925476074219</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>338.51953125</c:v>
@@ -5497,7 +5497,7 @@
                   <c:v>351.7129211425781</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>359.3414611816406</c:v>
+                  <c:v>359.3414916992188</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>356.0597534179688</c:v>
@@ -5509,7 +5509,7 @@
                   <c:v>350.1404724121094</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>361.9354248046875</c:v>
+                  <c:v>361.9354553222656</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>359.8956298828125</c:v>
@@ -5518,7 +5518,7 @@
                   <c:v>350.9031677246094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>355.34619140625</c:v>
+                  <c:v>355.3461608886719</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>349.9159240722656</c:v>
@@ -5563,7 +5563,7 @@
                   <c:v>362.9057922363281</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>360.6563415527344</c:v>
+                  <c:v>360.6563720703125</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>357.2763671875</c:v>
@@ -5645,7 +5645,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5660,7 +5660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5689,7 +5689,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5704,7 +5704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5733,7 +5733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5748,7 +5748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6260,13 +6260,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H712"/>
+  <dimension ref="A1:S712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6291,8 +6291,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.54</v>
       </c>
@@ -6317,8 +6323,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.305</v>
       </c>
@@ -6335,16 +6347,22 @@
         <v>360.818</v>
       </c>
       <c r="F3">
-        <v>358.3464965820312</v>
+        <v>358.3465270996094</v>
       </c>
       <c r="G3">
+        <v>386</v>
+      </c>
+      <c r="H3">
+        <v>386</v>
+      </c>
+      <c r="R3">
         <v>373</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>361.741</v>
       </c>
@@ -6364,13 +6382,19 @@
         <v>355.5992431640625</v>
       </c>
       <c r="G4">
+        <v>386</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>373</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>338.792</v>
       </c>
@@ -6390,13 +6414,19 @@
         <v>360.5956726074219</v>
       </c>
       <c r="G5">
+        <v>386</v>
+      </c>
+      <c r="H5">
+        <v>386</v>
+      </c>
+      <c r="R5">
         <v>373</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>353.734</v>
       </c>
@@ -6416,13 +6446,19 @@
         <v>364.0704040527344</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>386</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>373</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>363.503</v>
       </c>
@@ -6442,13 +6478,19 @@
         <v>349.9943237304688</v>
       </c>
       <c r="G7">
+        <v>386</v>
+      </c>
+      <c r="H7">
+        <v>386</v>
+      </c>
+      <c r="R7">
         <v>373</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>360.226</v>
       </c>
@@ -6468,7 +6510,7 @@
         <v>346.3800659179688</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>359.146</v>
       </c>
@@ -6488,7 +6530,7 @@
         <v>358.0045471191406</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>358.977</v>
       </c>
@@ -6508,7 +6550,7 @@
         <v>350.2311706542969</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>330.382</v>
       </c>
@@ -6528,7 +6570,7 @@
         <v>360.1942749023438</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.115</v>
       </c>
@@ -6548,7 +6590,7 @@
         <v>362.6344299316406</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>358.917</v>
       </c>
@@ -6568,7 +6610,7 @@
         <v>357.7972106933594</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.516</v>
       </c>
@@ -6588,7 +6630,7 @@
         <v>356.1640930175781</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>355.69</v>
       </c>
@@ -6608,7 +6650,7 @@
         <v>358.9955444335938</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>355.401</v>
       </c>
@@ -6865,7 +6907,7 @@
         <v>362.9</v>
       </c>
       <c r="F28">
-        <v>360.052978515625</v>
+        <v>360.0529479980469</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7105,7 +7147,7 @@
         <v>358.12</v>
       </c>
       <c r="F40">
-        <v>357.7135925292969</v>
+        <v>357.713623046875</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7145,7 +7187,7 @@
         <v>361.934</v>
       </c>
       <c r="F42">
-        <v>371.3925170898438</v>
+        <v>371.3925476074219</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7305,7 +7347,7 @@
         <v>359.052</v>
       </c>
       <c r="F50">
-        <v>359.3414611816406</v>
+        <v>359.3414916992188</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7385,7 +7427,7 @@
         <v>359.806</v>
       </c>
       <c r="F54">
-        <v>361.9354248046875</v>
+        <v>361.9354553222656</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7445,7 +7487,7 @@
         <v>355.419</v>
       </c>
       <c r="F57">
-        <v>355.34619140625</v>
+        <v>355.3461608886719</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7745,7 +7787,7 @@
         <v>361.227</v>
       </c>
       <c r="F72">
-        <v>360.6563415527344</v>
+        <v>360.6563720703125</v>
       </c>
     </row>
     <row r="73" spans="1:6">
